--- a/predicted_sleep_efficiency - Copy.xlsx
+++ b/predicted_sleep_efficiency - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dacs2\Desktop\DSII Final Project code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA79C8F-6B11-429E-9F19-412A7E396A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21826F73-80FA-4AAE-BEB0-EDDD92AF6396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>best_predicted_sleep_efficiency_confience</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -2515,16 +2518,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>162983</xdr:colOff>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>472016</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>74082</xdr:rowOff>
+      <xdr:rowOff>99482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>143933</xdr:colOff>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>452967</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>118532</xdr:rowOff>
+      <xdr:rowOff>143932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2851,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM5" workbookViewId="0">
-      <selection activeCell="BV7" sqref="BV7"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BV6" sqref="BV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3279,6 +3282,9 @@
         <f>(H2-BQ2)</f>
         <v>0</v>
       </c>
+      <c r="BV2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.5">
       <c r="A3">
